--- a/WorkBot/refactor/data/orders/Regional Distributors, Inc/CompletedOrders/Regional Distributors, Inc._Triphammer_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/Regional Distributors, Inc/CompletedOrders/Regional Distributors, Inc._Triphammer_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,6 +799,114 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>33576</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cup - Cold (12oz)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>69.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>139.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>40179</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cont - Half Rib Combo (10" x 7")</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22435</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Container - Deli (16oz)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14909</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lid - Deli (6/32oz)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
